--- a/Metro/Data/metro.xlsx
+++ b/Metro/Data/metro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumentumok\Visual Studio 2019\Repos\Metro\Metro\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumentumok\Visual Studio 2019\Repos\borosbence\Metro\Metro\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A886E0E1-076D-48B0-8C68-3D69774DC1D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF91DDB-FC78-480D-8F5E-6EC2D5C9BB98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC057037-8BB0-47F0-8CEE-40D169128A44}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
   <si>
     <t>Állomás</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Kálvin tér</t>
   </si>
   <si>
-    <t>Kelenföld vasútállomás</t>
-  </si>
-  <si>
     <t>Keleti pályaudvar</t>
   </si>
   <si>
@@ -263,6 +260,36 @@
   </si>
   <si>
     <t>20. megálló</t>
+  </si>
+  <si>
+    <t>Hungária körút</t>
+  </si>
+  <si>
+    <t>Róna utca</t>
+  </si>
+  <si>
+    <t>Bosnyák tér</t>
+  </si>
+  <si>
+    <t>Népszínház utca</t>
+  </si>
+  <si>
+    <t>Bocskai út</t>
+  </si>
+  <si>
+    <t>Kelenföldi pályaudvar</t>
+  </si>
+  <si>
+    <t>Tétényi tér</t>
+  </si>
+  <si>
+    <t>Szent Gellért tér</t>
+  </si>
+  <si>
+    <t>Dózsa György út (M4)</t>
+  </si>
+  <si>
+    <t>Dózsa György út (M3)</t>
   </si>
 </sst>
 </file>
@@ -633,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E15EE0-F8EF-4ECC-8876-001597F4B026}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,62 +763,62 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B10">
-        <v>484</v>
+        <v>1170</v>
       </c>
       <c r="C10">
-        <v>731</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -802,18 +829,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -824,7 +851,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -835,7 +862,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -846,18 +873,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -868,7 +895,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -879,7 +906,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -890,7 +917,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -901,18 +928,18 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B24">
-        <v>887</v>
+        <v>1125</v>
       </c>
       <c r="C24">
-        <v>777</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -923,40 +950,40 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>411</v>
+        <v>528</v>
       </c>
       <c r="C26">
-        <v>661</v>
+        <v>878</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -967,18 +994,18 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -989,7 +1016,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1000,7 +1027,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1011,18 +1038,18 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1033,29 +1060,29 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>1218</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B37">
-        <v>1129</v>
+        <v>806</v>
       </c>
       <c r="C37">
-        <v>712</v>
+        <v>878</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1066,18 +1093,18 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B39">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1088,84 +1115,84 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1218</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>712</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1129</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B43">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>712</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>878</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1176,12 +1203,89 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50">
+        <v>188</v>
+      </c>
+      <c r="C50">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51">
+        <v>440</v>
+      </c>
+      <c r="C51">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
         <v>0</v>
       </c>
     </row>
@@ -1196,7 +1300,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,75 +1330,75 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1303,16 +1407,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
@@ -1321,27 +1425,27 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1353,42 +1457,42 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -1406,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4" t="s">
         <v>11</v>
@@ -1424,30 +1528,30 @@
         <v>17</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -1456,13 +1560,25 @@
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Metro/Data/metro.xlsx
+++ b/Metro/Data/metro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumentumok\Visual Studio 2019\Repos\borosbence\Metro\Metro\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF91DDB-FC78-480D-8F5E-6EC2D5C9BB98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B127F550-6578-4973-AEEA-926768AA4607}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC057037-8BB0-47F0-8CEE-40D169128A44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC057037-8BB0-47F0-8CEE-40D169128A44}"/>
   </bookViews>
   <sheets>
     <sheet name="Állomások" sheetId="1" r:id="rId1"/>
@@ -342,10 +342,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -662,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E15EE0-F8EF-4ECC-8876-001597F4B026}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DD84C0-DAF0-4822-B763-151839F45428}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1407,7 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
@@ -1427,7 +1428,7 @@
       <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1586,16 +1587,14 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" tooltip="Deák Ferenc tér (metróállomás)" display="https://hu.wikipedia.org/wiki/De%C3%A1k_Ferenc_t%C3%A9r_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{19B86202-8542-459D-9221-1447BBB9E128}"/>
     <hyperlink ref="D2" r:id="rId2" tooltip="Bajcsy-Zsilinszky út (metróállomás)" display="https://hu.wikipedia.org/wiki/Bajcsy-Zsilinszky_%C3%BAt_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{A1801F9C-0262-48EB-91CB-91BBB8C9EE4C}"/>
-    <hyperlink ref="E2" r:id="rId3" tooltip="Opera (metróállomás)" display="https://hu.wikipedia.org/wiki/Opera_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{9BDF2516-0A57-46E6-B6B8-60EB525A1105}"/>
-    <hyperlink ref="F2" r:id="rId4" tooltip="Oktogon (metróállomás)" display="https://hu.wikipedia.org/wiki/Oktogon_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{19FE6A84-7E33-4AC9-AEED-16C8160843A8}"/>
-    <hyperlink ref="G2" r:id="rId5" tooltip="Vörösmarty utca (metróállomás)" display="https://hu.wikipedia.org/wiki/V%C3%B6r%C3%B6smarty_utca_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{439FE0EB-0A51-40DD-BB09-02E2327D6C9C}"/>
-    <hyperlink ref="H2" r:id="rId6" tooltip="Kodály körönd (metróállomás)" display="https://hu.wikipedia.org/wiki/Kod%C3%A1ly_k%C3%B6r%C3%B6nd_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{E3A51DD8-4176-49BB-9186-BE5E709451EB}"/>
-    <hyperlink ref="I2" r:id="rId7" tooltip="Bajza utca (metróállomás)" display="https://hu.wikipedia.org/wiki/Bajza_utca_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{2D75E883-D60C-421F-8A53-EFC074A571D0}"/>
-    <hyperlink ref="J2" r:id="rId8" tooltip="Hősök tere (metróállomás)" display="https://hu.wikipedia.org/wiki/H%C5%91s%C3%B6k_tere_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{4B341925-5DAF-4B02-9317-E32934CDF495}"/>
-    <hyperlink ref="K2" r:id="rId9" tooltip="Széchenyi fürdő (metróállomás)" display="https://hu.wikipedia.org/wiki/Sz%C3%A9chenyi_f%C3%BCrd%C5%91_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{329AA7E7-BA1F-432B-A273-7737770A18D3}"/>
-    <hyperlink ref="L2" r:id="rId10" display="https://hu.wikipedia.org/wiki/Mexik%C3%B3i_%C3%BAt_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{9076BF5F-1210-41F3-A902-EAD8EF4FF50E}"/>
+    <hyperlink ref="F2" r:id="rId3" tooltip="Oktogon (metróállomás)" display="https://hu.wikipedia.org/wiki/Oktogon_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{19FE6A84-7E33-4AC9-AEED-16C8160843A8}"/>
+    <hyperlink ref="G2" r:id="rId4" tooltip="Vörösmarty utca (metróállomás)" display="https://hu.wikipedia.org/wiki/V%C3%B6r%C3%B6smarty_utca_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{439FE0EB-0A51-40DD-BB09-02E2327D6C9C}"/>
+    <hyperlink ref="H2" r:id="rId5" tooltip="Kodály körönd (metróállomás)" display="https://hu.wikipedia.org/wiki/Kod%C3%A1ly_k%C3%B6r%C3%B6nd_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{E3A51DD8-4176-49BB-9186-BE5E709451EB}"/>
+    <hyperlink ref="I2" r:id="rId6" tooltip="Bajza utca (metróállomás)" display="https://hu.wikipedia.org/wiki/Bajza_utca_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{2D75E883-D60C-421F-8A53-EFC074A571D0}"/>
+    <hyperlink ref="J2" r:id="rId7" tooltip="Hősök tere (metróállomás)" display="https://hu.wikipedia.org/wiki/H%C5%91s%C3%B6k_tere_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{4B341925-5DAF-4B02-9317-E32934CDF495}"/>
+    <hyperlink ref="K2" r:id="rId8" tooltip="Széchenyi fürdő (metróállomás)" display="https://hu.wikipedia.org/wiki/Sz%C3%A9chenyi_f%C3%BCrd%C5%91_(metr%C3%B3%C3%A1llom%C3%A1s)" xr:uid="{329AA7E7-BA1F-432B-A273-7737770A18D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>